--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>Impact</t>
   </si>
@@ -53,10 +53,10 @@
     <t>treatment of waste reinforcement steel, recycling</t>
   </si>
   <si>
+    <t>rabbit</t>
+  </si>
+  <si>
     <t>green</t>
-  </si>
-  <si>
-    <t>rabbit</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,164 +451,116 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>1.704690182464366</v>
+        <v>3.409380364928732</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>3.409380364928732</v>
+        <v>0.3124827594006832</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>0.3124827594006832</v>
+        <v>3.678384536349976</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>1.839192268174988</v>
+        <v>0.3498304094147335</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6">
-        <v>3.678384536349976</v>
+        <v>1.664174817198441</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7">
-        <v>0.3498304094147335</v>
+        <v>-0.06177353503816869</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>2040</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>1.664174817198441</v>
+        <v>1.773971092283474</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9">
-        <v>3.328349634396882</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>-0.06177353503816869</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>1.773971092283474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>3.547942184566947</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
         <v>-0.0625605206879309</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C12"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -616,7 +568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -653,164 +605,116 @@
         <v>12</v>
       </c>
       <c r="E2">
-        <v>0.006160960447351644</v>
+        <v>0.01232192089470329</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>0.01232192089470329</v>
+        <v>0.00118544336668077</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>0.00118544336668077</v>
+        <v>0.01326391876732461</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E5">
-        <v>0.006631959383662307</v>
+        <v>0.001294827470244734</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>2040</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6">
-        <v>0.01326391876732461</v>
+        <v>0.005990449802518106</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E7">
-        <v>0.001294827470244734</v>
+        <v>-0.000566683393259233</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>2040</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>0.005990449802518106</v>
+        <v>0.006256772480144479</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E9">
-        <v>0.01198089960503621</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10">
-        <v>-0.000566683393259233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>0.006256772480144479</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>0.01251354496028896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13">
         <v>-0.0005684990797994778</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C12"/>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
